--- a/Technology/Nvidia.xlsx
+++ b/Technology/Nvidia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Growth Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B90911-983B-DE4F-8A68-9173E6AB5D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E7C971-CE45-914B-AACD-D4399C9A75B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="25060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="27140" windowHeight="28120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,7 +945,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -972,6 +974,12 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2547,11 +2555,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Y52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK108" sqref="AK108"/>
+      <selection pane="bottomRight" activeCell="AI102" sqref="AI102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2847,16 +2855,16 @@
       <c r="AE3" s="27">
         <v>73140000000</v>
       </c>
-      <c r="AF3" s="55" t="s">
+      <c r="AF3" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="AG3" s="56" t="s">
+      <c r="AG3" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" s="56" t="s">
+      <c r="AH3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="AI3" s="56" t="s">
+      <c r="AI3" s="55" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2981,19 +2989,19 @@
         <f t="shared" si="12"/>
         <v>0.12500576807715369</v>
       </c>
-      <c r="AF4" s="57">
+      <c r="AF4" s="56">
         <f>(Z4+Y4+X4)/3</f>
         <v>0.38118556093218037</v>
       </c>
-      <c r="AG4" s="57">
+      <c r="AG4" s="56">
         <f>(Z20+Y20+X20)/3</f>
         <v>0.40909729531125477</v>
       </c>
-      <c r="AH4" s="57">
+      <c r="AH4" s="56">
         <f>(Z29+Y29+X29)/3</f>
         <v>0.41613951529322118</v>
       </c>
-      <c r="AI4" s="57">
+      <c r="AI4" s="56">
         <f>(Z105+Y105+X105)/3</f>
         <v>9.9826876843558135E-2</v>
       </c>
@@ -3160,16 +3168,16 @@
       <c r="Z6" s="10">
         <v>15356000000</v>
       </c>
-      <c r="AF6" s="55" t="s">
+      <c r="AF6" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="AG6" s="56" t="s">
+      <c r="AG6" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="AH6" s="56" t="s">
+      <c r="AH6" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="AI6" s="56" t="s">
+      <c r="AI6" s="55" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3252,19 +3260,19 @@
       <c r="Z7" s="2">
         <v>0.56930000000000003</v>
       </c>
-      <c r="AF7" s="57">
+      <c r="AF7" s="56">
         <f>Z7</f>
         <v>0.56930000000000003</v>
       </c>
-      <c r="AG7" s="58">
+      <c r="AG7" s="57">
         <f>Z21</f>
         <v>0.23580000000000001</v>
       </c>
-      <c r="AH7" s="58">
+      <c r="AH7" s="57">
         <f>Z30</f>
         <v>0.16189999999999999</v>
       </c>
-      <c r="AI7" s="58">
+      <c r="AI7" s="57">
         <f>Z106/Z3</f>
         <v>0.14117298138948617</v>
       </c>
@@ -3453,16 +3461,16 @@
         <f t="shared" si="13"/>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AF9" s="55" t="s">
+      <c r="AF9" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="56" t="s">
+      <c r="AG9" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="AH9" s="56" t="s">
+      <c r="AH9" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="AI9" s="56" t="s">
+      <c r="AI9" s="55" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3545,19 +3553,19 @@
       <c r="Z10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF10" s="57">
+      <c r="AF10" s="56">
         <f>Z9</f>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AG10" s="58">
+      <c r="AG10" s="57">
         <f>Z13</f>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AH10" s="58">
+      <c r="AH10" s="57">
         <f>Z80</f>
         <v>0.10043004374582931</v>
       </c>
-      <c r="AI10" s="58">
+      <c r="AI10" s="57">
         <f>Z89</f>
         <v>6.7954326388373995E-2</v>
       </c>
@@ -3721,16 +3729,16 @@
       <c r="Z12" s="1">
         <v>2440000000</v>
       </c>
-      <c r="AF12" s="55" t="s">
+      <c r="AF12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="AG12" s="56" t="s">
+      <c r="AG12" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="AH12" s="56" t="s">
+      <c r="AH12" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="55" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3838,15 +3846,15 @@
         <f t="shared" si="14"/>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AF13" s="57">
+      <c r="AF13" s="56">
         <f>Z28/Z72</f>
         <v>0.19763811592235644</v>
       </c>
-      <c r="AG13" s="58">
+      <c r="AG13" s="57">
         <f>Z28/Z54</f>
         <v>0.10606575688407557</v>
       </c>
-      <c r="AH13" s="58">
+      <c r="AH13" s="57">
         <f>Z22/(Z72+Z56+Z61)</f>
         <v>0.12439627753563436</v>
       </c>
@@ -4014,16 +4022,16 @@
       <c r="Z15" s="1">
         <v>11132000000</v>
       </c>
-      <c r="AF15" s="55" t="s">
+      <c r="AF15" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="AG15" s="56" t="s">
+      <c r="AG15" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="AH15" s="56" t="s">
+      <c r="AH15" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="AI15" s="56" t="s">
+      <c r="AI15" s="55" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4110,15 +4118,15 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5968067059461103E-3</v>
       </c>
-      <c r="AG16" s="59">
+      <c r="AG16" s="58">
         <f>AH101/Z3</f>
         <v>21.502187291465855</v>
       </c>
-      <c r="AH16" s="59">
+      <c r="AH16" s="58">
         <f>AH101/Z28</f>
         <v>132.78388278388277</v>
       </c>
-      <c r="AI16" s="60">
+      <c r="AI16" s="59">
         <f>AH101/Z106</f>
         <v>152.31092436974791</v>
       </c>
@@ -4203,7 +4211,7 @@
         <v>262000000</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4281,6 +4289,9 @@
       </c>
       <c r="Z18" s="1">
         <v>1544000000</v>
+      </c>
+      <c r="AF18" s="54" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4361,6 +4372,10 @@
       </c>
       <c r="Z19" s="10">
         <v>6361000000</v>
+      </c>
+      <c r="AF19" s="60">
+        <f>Z40-Z56-Z61</f>
+        <v>1441000000</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -9577,10 +9592,10 @@
       <c r="Z83" s="1">
         <v>-2554000000</v>
       </c>
-      <c r="AG83" s="63" t="s">
+      <c r="AG83" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="AH83" s="64"/>
+      <c r="AH83" s="65"/>
     </row>
     <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9661,10 +9676,10 @@
       <c r="Z84" s="1">
         <v>-551000000</v>
       </c>
-      <c r="AG84" s="65" t="s">
+      <c r="AG84" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="AH84" s="66"/>
+      <c r="AH84" s="67"/>
     </row>
     <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10466,10 +10481,10 @@
       <c r="Z93" s="1">
         <v>-77000000</v>
       </c>
-      <c r="AG93" s="65" t="s">
+      <c r="AG93" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="AH93" s="66"/>
+      <c r="AH93" s="67"/>
     </row>
     <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10895,10 +10910,10 @@
       <c r="Z98" s="1">
         <v>-398000000</v>
       </c>
-      <c r="AG98" s="65" t="s">
+      <c r="AG98" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="AH98" s="66"/>
+      <c r="AH98" s="67"/>
     </row>
     <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11413,10 +11428,10 @@
       <c r="Z104" s="11">
         <v>3389000000</v>
       </c>
-      <c r="AG104" s="65" t="s">
+      <c r="AG104" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="AH104" s="66"/>
+      <c r="AH104" s="67"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11676,7 +11691,7 @@
       <c r="AD107" s="36"/>
       <c r="AE107" s="39">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>136433778231.12566</v>
+        <v>120278899283.29758</v>
       </c>
       <c r="AF107" s="40" t="s">
         <v>145</v>
@@ -11685,7 +11700,7 @@
         <v>146</v>
       </c>
       <c r="AH107" s="42">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11707,7 +11722,7 @@
       </c>
       <c r="AE108" s="39">
         <f>AE107+AE106</f>
-        <v>147120249548.84949</v>
+        <v>130965370601.02142</v>
       </c>
       <c r="AF108" s="40" t="s">
         <v>140</v>
@@ -11721,10 +11736,10 @@
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="61" t="s">
+      <c r="AA109" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="AB109" s="62"/>
+      <c r="AB109" s="63"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="AA110" s="45" t="s">
@@ -11732,7 +11747,7 @@
       </c>
       <c r="AB110" s="46">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>104464781306.13678</v>
+        <v>95135477729.784988</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11759,48 +11774,49 @@
       </c>
       <c r="AB113" s="46">
         <f>AB110+AB111-AB112</f>
-        <v>105905781306.13678</v>
+        <v>96576477729.784988</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="47" t="s">
+      <c r="AA114" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="AB114" s="48">
-        <v>2487000000</v>
+      <c r="AB114" s="61">
+        <f>Z34*(1+(5*AF16))</f>
+        <v>2486984027.9409657</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="49" t="s">
+      <c r="AA115" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="AB115" s="50">
+      <c r="AB115" s="49">
         <f>AB113/AB114</f>
-        <v>42.583748012117724</v>
+        <v>38.83276958949471</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
       <c r="AA116" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="AB116" s="51">
+      <c r="AB116" s="50">
         <v>232.88</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="52" t="s">
+      <c r="AA117" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="AB117" s="53">
+      <c r="AB117" s="52">
         <f>AB115/AB116-1</f>
-        <v>-0.81714295769444467</v>
+        <v>-0.83324987294102237</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="52" t="s">
+      <c r="AA118" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="AB118" s="54" t="str">
+      <c r="AB118" s="53" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
